--- a/src/attributions/attributions_ig_traj_454.xlsx
+++ b/src/attributions/attributions_ig_traj_454.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07207074518600923</v>
+        <v>0.06965262371421381</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1043235057734436</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02156627812231978</v>
+        <v>-0.0132067951477599</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.05310844834014798</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,25 +2172,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.08018833153777992</v>
+        <v>0.04591791322405216</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08227565945477686</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02087320218047267</v>
+        <v>-0.01623528273736143</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.07677437657327492</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
@@ -2199,19 +2199,19 @@
         <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>5.284606761363696e-12</v>
+        <v>0.002278297006559302</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.009073979644172421</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.01626970538756144</v>
+        <v>-0.001922188418225668</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>5.448076575841654e-12</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,28 +2220,28 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.09606198465584434</v>
+        <v>0.01947993184869364</v>
       </c>
       <c r="AD4" t="n">
         <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.09424681749077531</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.0841232233302376</v>
+        <v>0.03066154135110732</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.004235426966452045</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.05653032968979221</v>
+        <v>0.0131857595152292</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.009148100205985034</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.04224519148374876</v>
+        <v>-0.01191853084078029</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.02419721448654926</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.2156510116411695</v>
+        <v>0.09056969345535008</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.03219917735173863</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.00630054420050212</v>
+        <v>-0.002351787494214721</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.08211291476494845</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.01419645637423231</v>
+        <v>0.02233865973451455</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.06725076662316233</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.0007271318389531431</v>
+        <v>-0.03120009878822056</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.02200581126186145</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,22 +2334,22 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.05362376535510333</v>
+        <v>0.02527924845955864</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0466969821074886</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.00273472067725238</v>
+        <v>-0.004905177572846247</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01385494044593872</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.02694322024347484</v>
+        <v>0.042381330484443</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0837737321167592</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.05272092258146373</v>
+        <v>-0.01651827284042906</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.01423578080048319</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.06117969691352149</v>
+        <v>-0.02466569166017304</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.04127771280119064</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0221813859738427</v>
+        <v>0.0001486164489062312</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03855459370986331</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,22 +2415,22 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.007679408899295042</v>
+        <v>0.007457438885330226</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.02306008649457957</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.08238856503419169</v>
+        <v>0.01040422473354624</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.005822461686366765</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.06266051365479393</v>
+        <v>-0.01688526712682538</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.03345021839327423</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.01531479509603199</v>
+        <v>-0.005163277025162915</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.03967505526135616</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2469,19 +2469,19 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1854771283371926</v>
+        <v>-0.01678691999249714</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.02723882076872146</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.009063418712845715</v>
+        <v>0.01768122072368059</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.06368668214015714</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.03221498733814718</v>
+        <v>-0.01126742494722356</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01914030643491469</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07572808673018638</v>
+        <v>0.01534153253441296</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.01223511385898438</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2520,22 +2520,22 @@
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.06854347716247793</v>
+        <v>0.005175023384943723</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.07696430508760735</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01751656016019135</v>
+        <v>0.004092087557110486</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.03289050972970652</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,55 +2544,55 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.05162623484797077</v>
+        <v>-0.0100562886045687</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.03998685443267908</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.05702425999050904</v>
+        <v>0.0006590290531399393</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.0137314817850852</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.03817858120423763</v>
+        <v>-0.00782115357997458</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.0007813240307672184</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.05059032831647551</v>
+        <v>-0.003545606617250732</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.03973513648833167</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
@@ -2601,52 +2601,52 @@
         <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.04898997591036259</v>
+        <v>-0.01893077685402262</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.02444885563258764</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02141998643229487</v>
+        <v>-0.001363482948057746</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0.03724193435794861</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.02493529343281807</v>
+        <v>-0.01672543604043789</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.03252605539578182</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.009009675996504159</v>
+        <v>-0.01286796399207757</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.00943632135172065</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2655,22 +2655,22 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.01540964863234529</v>
+        <v>-0.004157806154154446</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.08884421851427206</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0217219549860019</v>
+        <v>-0.007975393088299058</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03710564779001576</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,25 +2679,25 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.04649906550397968</v>
+        <v>-0.02186230022227217</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.07407302876070181</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.01103051311706313</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
@@ -2714,43 +2714,43 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1402631533341512</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0660783278644038</v>
+        <v>-0.04912879048197314</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05896014513536648</v>
+        <v>-0.04750837659328704</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04465793820215815</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.09051486886840462</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02630446551401294</v>
+        <v>-0.02648940313112126</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02724410871669766</v>
+        <v>-0.06413832112155535</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,61 +2759,61 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.03288996262040301</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.02128283347738671</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.00657456937741242</v>
+        <v>-0.005219363906787938</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.02603434731667333</v>
+        <v>0.009023482336106248</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.02069771217901647</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.07072060223205257</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02121884647050486</v>
+        <v>0.005871792442933925</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01762379339370325</v>
+        <v>0.01044872076843468</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0488534347828068</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.01235426851502624</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.04907387365699978</v>
+        <v>-0.05249862365867109</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.06927904042592654</v>
+        <v>-0.09150311279176528</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.01634803793311378</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3446418620553199</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1067320681339599</v>
+        <v>-0.01700953759809372</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.110315768780451</v>
+        <v>0.1116888641049259</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>-0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1358104882147507</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.02121397761067066</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.003237102592405958</v>
+        <v>-0.02988940695835018</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01411721624484419</v>
+        <v>-0.08448486121409511</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,106 +2894,106 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01695951935288021</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.09300056740073318</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01546814853317145</v>
+        <v>0.05047132865002749</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.003025668325857575</v>
+        <v>0.1120176387732719</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.07166450338844205</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1649324642928614</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.10852006403445</v>
+        <v>-0.01191673198034119</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.03402644510712625</v>
+        <v>0.02879173635911039</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.08494911438603932</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.05288902792227426</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.04974715625090677</v>
+        <v>0.02020383935825736</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.007404756700529234</v>
+        <v>0.001175178729473224</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.03220517636899143</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.005590384767433862</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.04075611353757625</v>
+        <v>-0.02047943260782307</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0564038186044782</v>
+        <v>-0.05622776610803961</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,34 +3002,34 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.003389021440828103</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.02933029153234035</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.04329731380206749</v>
+        <v>0.0344016424220505</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.005482983712554435</v>
+        <v>0.0143233921526459</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.02028023284886394</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,79 +3038,79 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.001436769962596578</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.003133495026435301</v>
+        <v>0.01799160758896947</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.0516061285260167</v>
+        <v>-0.0164584620475656</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01197726585933303</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.06195185423269622</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.01380980754034669</v>
+        <v>-0.02021394025621356</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.03299143095658801</v>
+        <v>-0.009560833817958711</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.001670890010025177</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.0122477776896202</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.03028022800840743</v>
+        <v>-0.02812076500092301</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01014640422935994</v>
+        <v>-0.02401486906029487</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.04102721347479078</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.0399580589533762</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.04867694376035282</v>
+        <v>0.05663441606365035</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.07049954262662946</v>
+        <v>0.06963230544911359</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.05290971065589949</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.02545712271016326</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.03258592909182639</v>
+        <v>0.04761359939506429</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.05254687134988872</v>
+        <v>-0.001249441777564034</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.0497660572095301</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
@@ -3173,70 +3173,70 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.03535632488407987</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03899626902664095</v>
+        <v>0.03527650774949386</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.002120379377831756</v>
+        <v>0.0141269764997866</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.03086887379615645</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.04768732725384887</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04409755997521458</v>
+        <v>-0.03612686861186749</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0389470514714631</v>
+        <v>-0.01871345285972179</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.000466208735431782</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.04802414125464317</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.002950276924246844</v>
+        <v>0.007310134044962688</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.04513221739301686</v>
+        <v>0.04502327674953498</v>
       </c>
       <c r="FU5" t="n">
         <v>0</v>
@@ -3245,141 +3245,141 @@
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.04465440809462708</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.03643824887127488</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.00588229684356375</v>
+        <v>0.002662275058604669</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002779401335652448</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02483862863001005</v>
+        <v>0.03153556102038544</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1120579513644936</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0341563058872448</v>
+        <v>-0.01242506609884394</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.005953291223578763</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03290419766511494</v>
+        <v>0.01847986701992851</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08514282200449341</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01589328541439399</v>
+        <v>-0.0183594722283189</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.01357258504007898</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-6.192762242224716e-12</v>
+        <v>0.001459421199115091</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02696432363044367</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.0381971704382437</v>
+        <v>-0.001428408144818291</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>7.980461131626318e-12</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03259495562025365</v>
+        <v>0.01550556886252513</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06438596009987622</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.03369483866364588</v>
+        <v>0.02153304075178343</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.004111671910285146</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03228271807944399</v>
+        <v>0.0066487938371425</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.001353630266474678</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.003942528110306942</v>
+        <v>-0.01554110155979732</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.006543301272340176</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1384601018064082</v>
+        <v>0.06315701889423338</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03799335513095028</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.001919005284601098</v>
+        <v>-0.008069755532742248</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01575980148389394</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3439,25 +3439,25 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.007016674687132613</v>
+        <v>0.005926090729368482</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.076451117166156</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.002537899106443566</v>
+        <v>-0.02088801568923125</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.002347377510720586</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.03616791091393008</v>
+        <v>0.02604697749760845</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03057966284306283</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03430015640220601</v>
+        <v>0.0126362358528689</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.009684679261324526</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,163 +3496,163 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.01378047493763442</v>
+        <v>0.02031413403598212</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0554507118706813</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.007678746037580099</v>
+        <v>-0.01575623471081897</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.01606884136564738</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03454935075924589</v>
+        <v>-0.005991232668775134</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.04113314611671059</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01270285150030162</v>
+        <v>-0.0005064918714978078</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.006841301302198279</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.01415061207626362</v>
+        <v>0.0005522331387722264</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02521959871270686</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0629041670067442</v>
+        <v>0.004815076043533315</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.009843538713509882</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03750098997110388</v>
+        <v>-0.001532137412975494</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03358894848212895</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.001785159174734829</v>
+        <v>0.001059880558136619</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.009113863484528228</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.109085834243044</v>
+        <v>-0.007804599131386967</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.02469451512452637</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.000134371078579294</v>
+        <v>0.0002270179709576944</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.008548981489761973</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.01317143204741426</v>
+        <v>0.004401794861962805</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.006798770588929734</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.06874471051703232</v>
+        <v>0.01409363852646035</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.0009941877093691254</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
@@ -3661,22 +3661,22 @@
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01125029340823181</v>
+        <v>-0.004803730462906075</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04847432835877525</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.004668872699350335</v>
+        <v>-0.00918932724823469</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.004227455279006476</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,25 +3685,25 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03420274014628773</v>
+        <v>-0.0008439952123947626</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.06446643461700016</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.03208640513923451</v>
+        <v>-0.0002320257289284867</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.007799346900658764</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3715,22 +3715,22 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01109823994230092</v>
+        <v>-0.00262559915194264</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.002366785493373965</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0277385890234081</v>
+        <v>-0.01349191189659547</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.03318188055261515</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02554619521938078</v>
+        <v>0.0005930161968536497</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.03122820346502901</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01627896528359894</v>
+        <v>-0.001164543396922449</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.0108466985666311</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
@@ -3769,46 +3769,46 @@
         <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.04599701900845455</v>
+        <v>-0.008321278001343694</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.0228986520763765</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.01437414137671588</v>
+        <v>-0.01331183297287282</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01818152631671502</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.01919668045892491</v>
+        <v>-0.001312256177006958</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.05919619163137657</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01629241552843153</v>
+        <v>-0.006195928766814581</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.002010481412058339</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
@@ -3817,31 +3817,31 @@
         <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY6" t="n">
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02849053597859277</v>
+        <v>-0.01881500729147983</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.0400939564211205</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.0004130896055308887</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3852,19 +3852,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1161171007030521</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00728087121809693</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07466501568324943</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01068031532094829</v>
+        <v>-0.007454846663167947</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.01137906764179183</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.05904591585960912</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02042821028040465</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0621123603189314</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.04762064252717663</v>
+        <v>-0.06413203472583247</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,49 +3900,49 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.02957352737527708</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.01315883299703815</v>
       </c>
       <c r="U7" t="n">
-        <v>-1.471102601304565e-11</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.02593144755033881</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.05739183192847756</v>
+        <v>-0.005369576551095501</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-2.675737786816843e-12</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.04409505660060739</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.004485487052494491</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03719160720725284</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.004574448416831591</v>
+        <v>0.03406352979849904</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3954,79 +3954,79 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.01352416401325335</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.0285094479214747</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.0140475115314804</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.05676550556256293</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.007447937098504073</v>
+        <v>-0.01786107287736121</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01938127469321971</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2087284200287786</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.03456902439960591</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.05974351249103644</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02633815449853391</v>
+        <v>0.09369622605038209</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-0.001535302980103801</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.00651775061478526</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.002859386359963164</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.08286936713126002</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01282148807734827</v>
+        <v>-0.06439493252387811</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.004500013008519102</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.03341117496132391</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.04626448995007232</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03482307973015167</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.07706544744278146</v>
+        <v>0.08817714020607892</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,49 +4062,49 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.02942284075847584</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1069432036434638</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.008796255445941174</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.07226547815332041</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.04180127099861047</v>
+        <v>0.01606320361967048</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.002624615642048421</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.0288202447709403</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.009671712834342762</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.04008995962946438</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02354803362599235</v>
+        <v>0.0001620767091287814</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4113,25 +4113,25 @@
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.03025057956595246</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.01711400597859648</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.001854626959536495</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.0678052494966139</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.01167996362951269</v>
+        <v>-0.007127718811957289</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.008122279364480926</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.02367596032877793</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01278974933932762</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.0273276848870184</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01843328409131808</v>
+        <v>0.003929270086939453</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4167,82 +4167,82 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03194045087277503</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.09313311778348607</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03295346862573601</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.03306313717564687</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.01941975237702182</v>
+        <v>0.03359484218654588</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.01557584022725964</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.001789446622156118</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.02130623052426797</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.006843763056115475</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.04011488272587418</v>
+        <v>-0.00173912143378541</v>
       </c>
       <c r="DS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT7" t="n">
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>0.007625757581998707</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.005878414134021429</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02796960799613173</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0385279733748731</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.00598223887986139</v>
+        <v>-0.02349085428539276</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
@@ -4251,169 +4251,169 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>-0.01308885383546396</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.003222057714930026</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.003525101447075799</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.03117135499972528</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.0003932585685312167</v>
+        <v>0.02399224766819068</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.03109475537076417</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.04204236755861852</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.001821504993525841</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01977132346332373</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.007372580239848273</v>
+        <v>-0.003888980288651529</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.01010547251567656</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.03368984787437714</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.008660429216854247</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.02282405688720587</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02352408740581384</v>
+        <v>0.005844099718807129</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.018694573387476</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.03929705326491671</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.009877515971454299</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001714009826209611</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.004718656582822913</v>
+        <v>-0.0284574729929021</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.0116095560653988</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.0619878757214444</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.002318431358201298</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.02005762563530059</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.02180602743599033</v>
+        <v>0.005042285320660026</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>-0.0005387351663911457</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03254117220803813</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01567826286979087</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0462740872118319</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03659005549313916</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,46 +4987,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.3019212841299535</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1551050568623291</v>
+        <v>-0.1244636318331575</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05170415639697047</v>
+        <v>-0.001896006330799194</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.07305022976420597</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.2093191549904211</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1257643034427575</v>
+        <v>-0.1516859587528174</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01076855975971534</v>
+        <v>-0.07552756366442445</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,61 +5035,61 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1172958275604739</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.05608637754124651</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.00158245511339751</v>
+        <v>0.001655122229820161</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.09767590837699482</v>
+        <v>0.01126624591136036</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.03978039206926311</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.1330184137875475</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.06404798588497079</v>
+        <v>-0.05016931469978424</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04176902566065588</v>
+        <v>0.01251945208978315</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.002200447058410202</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
@@ -5098,43 +5098,43 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01661356338387513</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.08622906660322568</v>
+        <v>-0.0464518451982801</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.07323433739860837</v>
+        <v>-0.09022803150748752</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.0270831374167039</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4535976227296254</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.1114139632973286</v>
+        <v>0.03342418362059519</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.07751426594259224</v>
+        <v>0.2002718008022514</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,169 +5143,169 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1506283365676461</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.0140132442171513</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.08540421784766035</v>
+        <v>-0.08396154068161647</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01891305315370959</v>
+        <v>-0.1572969478140629</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.003631006617323245</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.1284677850230491</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.002390201763701277</v>
+        <v>0.01935220917745772</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.002526594884941126</v>
+        <v>0.1508062703794752</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.02707079740158388</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.2339231213351282</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1289131184330065</v>
+        <v>0.009652962032730878</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.01183945904787926</v>
+        <v>0.06225120943805748</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.1333233960367262</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.08244923423171428</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.05301143984820379</v>
+        <v>0.003930233467063867</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01299970504265382</v>
+        <v>-0.02283573825772168</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.02793897231020451</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.04374653691585031</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.05971566902753509</v>
+        <v>-0.0808776704476345</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.08509018595081318</v>
+        <v>-0.04043984574841659</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.03600692970446363</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.05428621807951961</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.05290670819805276</v>
+        <v>0.02429747025948435</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.02138296596303247</v>
+        <v>-0.004967881893598342</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.02550606659393568</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
@@ -5314,43 +5314,43 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01586609896450627</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01585239697795964</v>
+        <v>0.02226769682008138</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.07416890391182031</v>
+        <v>0.008348801943286415</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.0578813357512051</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.06405152593805531</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01917625541857258</v>
+        <v>-0.02089221867776788</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.01425711804759068</v>
+        <v>-0.01962201658198517</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,61 +5359,61 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02352138708651744</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.02385587633704251</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.02502923809475444</v>
+        <v>-0.0231926933514335</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.02040810589425458</v>
+        <v>-0.03052183031158026</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
         <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0299990098241156</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.01768728118725849</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.1149122610208334</v>
+        <v>0.03296438687643364</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.0273192656004799</v>
+        <v>0.04271602340955431</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.06012534377440048</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,106 +5422,106 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.08083830177160867</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.05186594605511326</v>
+        <v>-0.04734034503756699</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.0548809401843894</v>
+        <v>0.002797138610991398</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.06570049550036217</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.06738043758584933</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.05332767959072966</v>
+        <v>0.01253975774768924</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02211888101640194</v>
+        <v>0.008958487328733644</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.04261543589029485</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.0306468807951857</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.01946305927178335</v>
+        <v>0.03580579225431035</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.009224994775895298</v>
+        <v>-0.02433709717556653</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0.005571489081785514</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.03425321492073131</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.03381789816378265</v>
+        <v>-0.04175246996048487</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1120625783881237</v>
+        <v>0.04690119223899062</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.002117464864283812</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
         <v>0</v>
@@ -5530,25 +5530,25 @@
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.03238765441937098</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.005430760236883173</v>
+        <v>-0.07041884746163696</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01111387989814153</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
         <v>-0</v>
@@ -5556,28 +5556,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.4015164711808807</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2634680351655216</v>
+        <v>-0.162243735278075</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05748051109181036</v>
+        <v>-0.1298679122191862</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.001212117047903273</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07477832832654109</v>
+        <v>0.002196563933134524</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
@@ -5586,25 +5586,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2866420476512556</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2529267021568272</v>
+        <v>-0.1650723141899183</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04526969968119139</v>
+        <v>-0.2338162230602431</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02216880816592924</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1226416600743741</v>
+        <v>-5.773843992507836e-05</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1194001429794099</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.009891085410517154</v>
+        <v>-0.04146989523935434</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1151601857103413</v>
+        <v>-0.009577813371606731</v>
       </c>
       <c r="X10" t="n">
-        <v>-6.940149100966438e-11</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.03251530854368081</v>
+        <v>-1.165141869562668e-11</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.07535709907618832</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.09676300976165536</v>
+        <v>0.0719574550843427</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.06999398882044595</v>
+        <v>-0.04510699066944255</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0384460260238812</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.04067729108497666</v>
+        <v>0.01408999266914062</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.03042748983655356</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.1221537033984077</v>
+        <v>-0.06682039923425173</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.05248872163298311</v>
+        <v>-0.07963133236139716</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.03848272122109617</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.003647248571226546</v>
+        <v>0.0188317380854795</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,187 +5694,187 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.6171267101276915</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1124260093273894</v>
+        <v>-0.01504940877566782</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1310178896849729</v>
+        <v>0.1780355768034943</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.05705319734561151</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.1161180714056661</v>
+        <v>0.07590058188381982</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.02159293685063407</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1959168431673199</v>
+        <v>-0.07999834299163916</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.1096022483055093</v>
+        <v>-0.3451410122237681</v>
       </c>
       <c r="BH10" t="n">
-        <v>-3.224048552496781e-11</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01773801767221227</v>
+        <v>-1.025408752838349e-11</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.2048410783397344</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0191702666328704</v>
+        <v>0.123932774274905</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.06132826480652059</v>
+        <v>0.134053709600903</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.03525134506259794</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0691406543273306</v>
+        <v>0.03255796661519469</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.2983067381313633</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1676717803856301</v>
+        <v>0.01299885167966509</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02308155564311502</v>
+        <v>0.03914353371971967</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01446630410046477</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.09319119198586712</v>
+        <v>0.003081441608691223</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.09855116117914485</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.07258225496196757</v>
+        <v>0.03411704048279777</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.001254522284328235</v>
+        <v>-0.006197954328820997</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.0087318845097989</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02478640467461382</v>
+        <v>0.002073265252340078</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.06147291244789958</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.04208251013555536</v>
+        <v>-0.0759582108131692</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1039456625675708</v>
+        <v>-0.009006737943174912</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.03390297371979503</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.02830962937705871</v>
+        <v>0.04758675488980163</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.06382970467639522</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.05105620628590859</v>
+        <v>0.06542701278397187</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.00235012103690523</v>
+        <v>-6.167964947584231e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01324366102752947</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01027264866132537</v>
+        <v>0.0001098689537699077</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
@@ -5883,52 +5883,52 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.07308593494924069</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.06853153708264985</v>
+        <v>0.05179340999601858</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.04237014013198562</v>
+        <v>-0.0004495546668951363</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0007147839163155613</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03893421880006002</v>
+        <v>0.001840681708277136</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.09784657496771371</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.04833393078975279</v>
+        <v>-0.02541881010834486</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.09469726154330013</v>
+        <v>0.03446287494005714</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.03939846670110858</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.04043883828712135</v>
+        <v>-0.006357608897688938</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
@@ -5937,52 +5937,52 @@
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.01928468725248561</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.009634696753112116</v>
+        <v>-0.02354472591987242</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.0318142321653463</v>
+        <v>-0.05665129497128161</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.06741421849148851</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.05042410210121605</v>
+        <v>-0.0107638436428869</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.05257464633749249</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1889024694173752</v>
+        <v>0.06985138506152817</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.008762515155547714</v>
+        <v>0.04407883599778439</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.01641534843786948</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.004335145142131914</v>
+        <v>0.03631718298696239</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
@@ -5991,79 +5991,79 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.08520831813968727</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.03303987867884219</v>
+        <v>0.1011005925179925</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.01616823669738134</v>
+        <v>-0.03888338219626104</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.1170862879694984</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.02403867657953968</v>
+        <v>-0.01438631126932967</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.0759754629482359</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.05848026930605573</v>
+        <v>0.05499050605453597</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.004810314272520775</v>
+        <v>0.02074012071859481</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01490347201513164</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02837561437406462</v>
+        <v>-0.0004590666858990546</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.04837642302047352</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.06114650847769553</v>
+        <v>-0.06415811631540622</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.06367509231074683</v>
+        <v>-0.03679165762082445</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.01088035891424661</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.01263847855145547</v>
+        <v>0.002050615440955606</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.08536523914452887</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.04847511217156716</v>
+        <v>-0.05497083802582022</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.05086262629476052</v>
+        <v>-0.09253670187239249</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.09460588516057289</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.04837189151005498</v>
+        <v>2.300604822874316e-05</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.1059026616373485</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.1091436463216571</v>
+        <v>-0.02873256944932742</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.01389680681085518</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.02189706902702635</v>
+        <v>0.02947763973571986</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6128,19 +6128,19 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1424838013325096</v>
+        <v>0.2962127910196322</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2235020144792423</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05198721139389696</v>
+        <v>-0.0794314827713265</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.3251552092915581</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6155,154 +6155,154 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1030952161475073</v>
+        <v>0.2629837857579844</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2049483895488078</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01892444567483443</v>
+        <v>-0.07159152094960258</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.3179368627319411</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.01830146957345008</v>
+        <v>0.03523435031640208</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.04949470814438745</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1075722970761062</v>
+        <v>-0.02463843383928913</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.004668410649388662</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.07532681774788642</v>
+        <v>0.03675971385235492</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.08353766960438798</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.07042222025586964</v>
+        <v>0.009395998632068097</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-0.005707230839108877</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.02410750988728781</v>
+        <v>0.05870138376722164</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01579237351496629</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.03321461618205137</v>
+        <v>-0.002304377691093237</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.06017337604118368</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.1019109917107204</v>
+        <v>0.3028903815037773</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.07067637373289612</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.02575147332369127</v>
+        <v>-0.01307273160712979</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.158608514226485</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.03896788218484899</v>
+        <v>0.10473886162177</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1497940417333138</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.02196736433408481</v>
+        <v>-0.1292153063364998</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.1541380521351499</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,58 +6311,58 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.05642718350342905</v>
+        <v>0.1386154872188016</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02399346022235868</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01426400788946286</v>
+        <v>0.03976924489844725</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.01588841471186974</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.03276732864629429</v>
+        <v>0.1493340254400462</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.1019384025140418</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.06335110401554957</v>
+        <v>-0.02029345586095235</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0.07543376336430127</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
@@ -6371,19 +6371,19 @@
         <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03960699884428794</v>
+        <v>-0.06107299957612145</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.06089053752468644</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01397791907187529</v>
+        <v>0.005462934584520061</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.07567569821855132</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
@@ -6395,49 +6395,49 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.009156579807259282</v>
+        <v>-0.02527754020166652</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.03719113277044245</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.09018048484233943</v>
+        <v>0.01079361677557619</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0</v>
+        <v>-0.0134062306392451</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.04357112220324295</v>
+        <v>-0.04092305421946318</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.04759138939162165</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01321949150320317</v>
+        <v>0.008836695591403541</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.07393416580392463</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6446,25 +6446,25 @@
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05961155306145397</v>
+        <v>-0.05205553808121168</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.04416519621299589</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.05121279294569049</v>
+        <v>0.03469555737188169</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.006543343349842912</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6473,85 +6473,85 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01733319895306139</v>
+        <v>-0.02403335065064489</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.004916284418986965</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.02209158883592553</v>
+        <v>0.03074879820604255</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.03800906293009364</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02122240728359661</v>
+        <v>0.01627373183585723</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.05074988792998299</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02900746043009329</v>
+        <v>-0.01362330268880633</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>0.01727799743227545</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0378096504854542</v>
+        <v>-0.02206748883148681</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.08388309846887274</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.0259479452879855</v>
+        <v>0.006243774999739808</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.06133942838990441</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>0</v>
@@ -6560,19 +6560,19 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.04074974685067778</v>
+        <v>-0.01439953548536112</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.01233770222800585</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0376518923857358</v>
+        <v>0.01210939280857864</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.0547082893706542</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6584,22 +6584,22 @@
         <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03339706133505391</v>
+        <v>-0.03976921609440331</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.04755077767155212</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02215298875927695</v>
+        <v>0.0107622551996117</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.07553593964051231</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
@@ -6608,52 +6608,52 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.02625563295594738</v>
+        <v>-0.03037441473876131</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.06157364695461141</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01007590053726428</v>
+        <v>-0.01773561569528527</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.04365721442228479</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01772109259763886</v>
+        <v>0.03122763092286335</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.08814302348642565</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.06338443709611681</v>
+        <v>-0.03734237874889076</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.04304409050911572</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
@@ -6662,28 +6662,28 @@
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.05678943608661713</v>
+        <v>-0.03442641838414884</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.04946551117784014</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.03868904628827099</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2893308073205843</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4591187477910121</v>
+        <v>-0.1419535223640453</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0334858770502257</v>
+        <v>-0.04678776521098074</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.218678711787554</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,79 +6724,79 @@
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.2223878588418357</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4589661740732136</v>
+        <v>-0.1490420652592066</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1730081155154107</v>
+        <v>-0.09850853879884507</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.3107192874699089</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.10496066100216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.004363728716689888</v>
+        <v>0.008336219470908466</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.2512834013137327</v>
+        <v>0.05189868317724598</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.1430433116864827</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1226706867455125</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1554896741308993</v>
+        <v>-0.02622097773023647</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.01905964769891086</v>
+        <v>-0.01358927329651911</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.08679469599630175</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,43 +6805,43 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.0261808401336431</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.1500324996475015</v>
+        <v>-0.03596231415873668</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.07252538503184222</v>
+        <v>-0.05894296015706968</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.049451750141884</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3509165762832935</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.2295332665418679</v>
+        <v>0.006030863900176995</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.04964280212539757</v>
+        <v>0.09363614144551978</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,52 +6850,52 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.2713161824553493</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.02700411312040913</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.2867828992973422</v>
+        <v>-0.09197620898769655</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.01955757715356806</v>
+        <v>-0.1872055844340971</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.05024302256612558</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.09649162602644107</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01664460270224289</v>
+        <v>0.0413918121101997</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01743766725397954</v>
+        <v>0.1005156897292799</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
@@ -6904,169 +6904,169 @@
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1212203604562064</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.1706785228081994</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.2103675358934715</v>
+        <v>0.005380969536502351</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.06406637120486296</v>
+        <v>0.06797186652176784</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.2241193637007309</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.07397288827463021</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.1312071488128597</v>
+        <v>0.008558510514092793</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.06340740071487694</v>
+        <v>-0.007520654568285647</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.08767935700589631</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.03825970163358847</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.101395675855693</v>
+        <v>-0.04639469223090675</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1348643847307138</v>
+        <v>-0.02109520902193884</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.08115605338341837</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.04532410667850405</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.1167207531902989</v>
+        <v>0.02323054925670109</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.0701405459153658</v>
+        <v>-0.003467646910161157</v>
       </c>
       <c r="DA12" t="n">
         <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.08164306477153628</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.05613217223555436</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.04722383145006053</v>
+        <v>0.01596265549001635</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1464196818788144</v>
+        <v>0.02080380292310339</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.02764190234791534</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.05155162770062629</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.02653176393736589</v>
+        <v>-0.00398404685740763</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.007609240408201853</v>
+        <v>-0.03611025494201275</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.01120191552541942</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
@@ -7075,160 +7075,160 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.02856591306200486</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.08276530509248696</v>
+        <v>0.01819180843771786</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.09524652409912918</v>
+        <v>-0.02034392112056498</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.06110152894817034</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.02632004846844499</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.2260906060354943</v>
+        <v>0.05174326804297629</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.05574656456262796</v>
+        <v>0.04890421909466904</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.1065032179531758</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.0599284100008774</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.0474010351146394</v>
+        <v>0.02615693650730194</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.06153400391433402</v>
+        <v>0.04746573685542603</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.07214842985407256</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.0564108906613917</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.1147324465927976</v>
+        <v>0.02603269551359643</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.06341546338072515</v>
+        <v>0.007988088297983698</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.09287389082412102</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.02457064156264356</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.08901952304333752</v>
+        <v>0.03746725420537458</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.07522977889736486</v>
+        <v>-0.05215636501321517</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.07280705010324344</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.02086756647181548</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.03099860377355179</v>
+        <v>-0.02031375279636649</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.08764886548941637</v>
+        <v>0.02096051778953616</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.1129825951582182</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.01885565083916371</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.07456998079427445</v>
+        <v>-0.0656093774582745</v>
       </c>
       <c r="GC12" t="n">
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.01816696418642334</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7263,22 +7263,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3191234147301785</v>
+        <v>-0.4400302211912957</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1620948282299434</v>
+        <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02606692781615064</v>
+        <v>0.1461241172552608</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>0.7890443033078912</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
@@ -7293,22 +7293,22 @@
         <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.30686644789101</v>
+        <v>-0.3324966261368732</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1408609644361683</v>
+        <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006777021436402584</v>
+        <v>0.009800255643548566</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.7435162744535142</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -7320,52 +7320,52 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02164331488638065</v>
+        <v>-0.02852553755507251</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03327549064810201</v>
+        <v>-0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2001979380759096</v>
+        <v>0.185601812712733</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>0.1072440994968036</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1291092913059257</v>
+        <v>-0.03382671661840421</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.07334996741042168</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.000599214871475759</v>
+        <v>-0.03234939687559153</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>0.06251031936358561</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -7374,52 +7374,52 @@
         <v>-0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.05811827171587559</v>
+        <v>-0.05538661300786257</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.04014547794268529</v>
+        <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.03203357401056001</v>
+        <v>-0.0322000688477382</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.1227122301420223</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.2842016127210982</v>
+        <v>-0.3931463321596582</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.01979806556668162</v>
+        <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03140941073230553</v>
+        <v>0.2323413491674978</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>0.5890196543049772</v>
       </c>
       <c r="AZ13" t="n">
         <v>-0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>-0</v>
@@ -7428,25 +7428,25 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.07196282389258998</v>
+        <v>-0.212996368384224</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.09072515933129109</v>
+        <v>-0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.02182965233775291</v>
+        <v>0.05136683520176594</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>0.2075023442196922</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
@@ -7455,22 +7455,22 @@
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0.03511073001126411</v>
+        <v>-0.1941601695485171</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.03773248732135869</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.04239749970793727</v>
+        <v>-0.1204997837809557</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.01807009386510154</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
         <v>-0</v>
@@ -7479,28 +7479,28 @@
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.06987000671342854</v>
+        <v>-0.2293525259763025</v>
       </c>
       <c r="BW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.08132603843544689</v>
+        <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.1310310803619204</v>
+        <v>0.1399621449791268</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>0.3235731351534769</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>-0</v>
@@ -7509,22 +7509,22 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0.1030565252466348</v>
+        <v>0.1022964031386092</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.03489755767543165</v>
+        <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.0117247291675177</v>
+        <v>-0.0230976691802364</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>-0.1562743672663109</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>-0</v>
@@ -7536,73 +7536,73 @@
         <v>-0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0.03896510363114356</v>
+        <v>0.03138869183741642</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.01086127915548527</v>
+        <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1175663951646953</v>
+        <v>-0.1220698926590878</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>0.02269890678759298</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
         <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0.09275158528787326</v>
+        <v>0.07014813702145432</v>
       </c>
       <c r="CX13" t="n">
         <v>0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.04308417329274063</v>
+        <v>-0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.01980241327005096</v>
+        <v>-0.02842803018107314</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>-0.1428503779882702</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
         <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0.08688005114530443</v>
+        <v>0.03522274326580417</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.009163980423080254</v>
+        <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0087567444648397</v>
+        <v>-0.1937875658370731</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>-0.03678692978627917</v>
       </c>
       <c r="DK13" t="n">
         <v>-0</v>
@@ -7617,46 +7617,46 @@
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.05193190446550829</v>
+        <v>0.01263993120250317</v>
       </c>
       <c r="DP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.02509891519641049</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.06513201610432891</v>
+        <v>-0.03452392471642902</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0.01358223511800464</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0.04979824120726833</v>
+        <v>-0.00946477032141777</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.02576670248114393</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.04404082490031045</v>
+        <v>0.02252276054972439</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>-0.1092765623424978</v>
       </c>
       <c r="EC13" t="n">
         <v>-0</v>
@@ -7668,25 +7668,25 @@
         <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0.07441633401499868</v>
+        <v>0.07556564415788805</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.07331886303173299</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0416105088580858</v>
+        <v>-0.09070887990300125</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>-0.1191578180235507</v>
       </c>
       <c r="EL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM13" t="n">
         <v>-0</v>
@@ -7695,22 +7695,22 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0.02541632326342643</v>
+        <v>0.02744778016513771</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0.06792842419235397</v>
+        <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.007511549260242803</v>
+        <v>-0.0101719222262325</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0.1396816561472966</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
@@ -7722,25 +7722,25 @@
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0.09128699882332963</v>
+        <v>0.06036844226931955</v>
       </c>
       <c r="EZ13" t="n">
         <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.03621301622505672</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.02338149303131135</v>
+        <v>-0.07638419469111281</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>-0.1457296525508723</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
         <v>-0</v>
@@ -7749,22 +7749,22 @@
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.05645007897806424</v>
+        <v>0.06918441783419628</v>
       </c>
       <c r="FI13" t="n">
         <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.07677051348909072</v>
+        <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01122317335742494</v>
+        <v>-0.01837688591148355</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.02095011276292382</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
@@ -7776,25 +7776,25 @@
         <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.007624918867656939</v>
+        <v>-0.005895431789591535</v>
       </c>
       <c r="FR13" t="n">
         <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.01905778127942882</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.06862957554729091</v>
+        <v>0.01979911303407366</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.04485267642548387</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
         <v>0</v>
@@ -7803,28 +7803,28 @@
         <v>-0</v>
       </c>
       <c r="FY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.09824640319338686</v>
+        <v>0.03347583013994021</v>
       </c>
       <c r="GA13" t="n">
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0.03436628644380236</v>
+        <v>0</v>
       </c>
       <c r="GC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>0.03583740225635566</v>
       </c>
       <c r="GE13" t="n">
         <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
         <v>-0</v>
@@ -7832,19 +7832,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5069746522958086</v>
+        <v>0.2127481818162456</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4686682290419391</v>
+        <v>-0.1213452895671792</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1162428803567459</v>
+        <v>0.1442763001557124</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -7856,49 +7856,49 @@
         <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4262938276570838</v>
+        <v>0.2153879649628282</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.3983612670300281</v>
+        <v>-0.04883055807025742</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06989175321442206</v>
+        <v>0.08139647994910056</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.007307932899650368</v>
+        <v>0.02999942266900436</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.09293457321388617</v>
+        <v>0.06181685061295922</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04955130132964474</v>
+        <v>0.04740348320885432</v>
       </c>
       <c r="X14" t="n">
         <v>-0</v>
@@ -7910,22 +7910,22 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.04628359925408473</v>
+        <v>-0.02435029733487662</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.1015070928945734</v>
+        <v>-0.0128775452128222</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.05858406304856186</v>
+        <v>0.007291442668956003</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -7937,22 +7937,22 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.1640097873312141</v>
+        <v>0.0009876712400837115</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0.1552576832823271</v>
+        <v>-0.0151127693234958</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.03477502045881673</v>
+        <v>-0.06589065669835305</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -7964,49 +7964,49 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.2757914098166704</v>
+        <v>0.1143883016956932</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.2004336535341116</v>
+        <v>-0.05106196232588504</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.04631244989645644</v>
+        <v>0.1637094856704814</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
         <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.1757538798125016</v>
+        <v>0.1184517735411994</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.1835208299200402</v>
+        <v>-0.01703979127276205</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.08003723282909959</v>
+        <v>0.08761464013488872</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
@@ -8018,82 +8018,82 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.02745465252073774</v>
+        <v>0.02245733433503399</v>
       </c>
       <c r="BM14" t="n">
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.003010889654269237</v>
+        <v>0.01721859463317704</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.02128662737369696</v>
+        <v>0.0858856748505327</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.2849622758392913</v>
+        <v>0.05186853012291872</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>-0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0.1364109315581469</v>
+        <v>-0.002413317766101937</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.07022658834018644</v>
+        <v>0.08014564655202941</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
         <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.1304344718602624</v>
+        <v>-0.04171991599811762</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.08481188141106934</v>
+        <v>-0.01664242001583374</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.03328905995673753</v>
+        <v>-0.03108536949131906</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -8102,52 +8102,52 @@
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.09011511651511502</v>
+        <v>-0.02003297917815343</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.1241923883292088</v>
+        <v>-0.08086158364985026</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.1097457097491415</v>
+        <v>-0.09596145660160081</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
         <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.1215773934018692</v>
+        <v>-0.03252811021633836</v>
       </c>
       <c r="CW14" t="n">
         <v>-0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.04759501170741362</v>
+        <v>0.001530118247315277</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.05499756166462598</v>
+        <v>-0.02307518383511102</v>
       </c>
       <c r="DA14" t="n">
         <v>-0</v>
       </c>
       <c r="DB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC14" t="n">
         <v>-0</v>
@@ -8156,19 +8156,19 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.01657811123727132</v>
+        <v>-0.01613871915039517</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.05668175991049217</v>
+        <v>0.05611999808322592</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.1655155070114445</v>
+        <v>-0.02227689626098308</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
@@ -8177,40 +8177,40 @@
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.02217778818038642</v>
+        <v>-0.02553801593473321</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.003860792653470681</v>
+        <v>0.03865860001297722</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.03337776085632561</v>
+        <v>-0.08059878124067203</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0.01734796549489864</v>
+        <v>-0.03057830847219872</v>
       </c>
       <c r="DX14" t="n">
         <v>-0</v>
@@ -8219,16 +8219,16 @@
         <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0.009889993560744673</v>
+        <v>-0.02619243729951997</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.05882793006369182</v>
+        <v>-0.02979632934395841</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
         <v>-0</v>
@@ -8237,25 +8237,25 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.2199845960507733</v>
+        <v>-0.03790396196512209</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.1041871962342946</v>
+        <v>0.00812169903954393</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03027421029329718</v>
+        <v>-0.002595699955930855</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
         <v>0</v>
@@ -8264,25 +8264,25 @@
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.02198539494654174</v>
+        <v>-0.01529973682800669</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ14" t="n">
         <v>-0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.001252458444996419</v>
+        <v>0.03378678259352468</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.06216162338025336</v>
+        <v>-0.003746849102695152</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
         <v>0</v>
@@ -8291,76 +8291,76 @@
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.1243516125080226</v>
+        <v>-0.03421373231961227</v>
       </c>
       <c r="EY14" t="n">
         <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0603573106050946</v>
+        <v>-0.008992436127871475</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.05468076151860975</v>
+        <v>-0.03612083700315429</v>
       </c>
       <c r="FC14" t="n">
         <v>0</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
         <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.1272571990628478</v>
+        <v>0.002836140414838229</v>
       </c>
       <c r="FH14" t="n">
         <v>0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.1337553538988227</v>
+        <v>0.01319877608197048</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.02492564548684572</v>
+        <v>-0.1215513789028884</v>
       </c>
       <c r="FL14" t="n">
         <v>0</v>
       </c>
       <c r="FM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>-0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0.03333758936661818</v>
+        <v>0.01261423274869531</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.1334739701160138</v>
+        <v>-0.001491104576589455</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.02905481874728573</v>
+        <v>0.04911029474173853</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
         <v>0</v>
@@ -8369,42 +8369,42 @@
         <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.08431660151189532</v>
+        <v>0.02150251150644242</v>
       </c>
       <c r="FZ14" t="n">
         <v>0</v>
       </c>
       <c r="GA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.01595508800985403</v>
+        <v>-0.02436690417023375</v>
       </c>
       <c r="GC14" t="n">
         <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
         <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8970,10 +8970,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -8997,10 +8997,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -9051,10 +9051,10 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -9105,10 +9105,10 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
@@ -9159,10 +9159,10 @@
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
@@ -9186,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -9213,10 +9213,10 @@
         <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
@@ -9294,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG16" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
@@ -9348,10 +9348,10 @@
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
@@ -9375,10 +9375,10 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ16" t="n">
         <v>0</v>
@@ -9429,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
@@ -9539,52 +9539,52 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1818773308777194</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0.4798839090221421</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.08739983253848428</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05417069087557912</v>
+        <v>-0.09708317245157393</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02343311161188364</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1615781980144234</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0</v>
+        <v>0.3060445113342578</v>
       </c>
       <c r="L17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0.1350739504912112</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08358338306433553</v>
+        <v>-0.1071874458000956</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.005148583333737983</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9593,52 +9593,52 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.001194535633758834</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.08637900757558158</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.03067475875928937</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.04023364542964944</v>
+        <v>0.1364408273779457</v>
       </c>
       <c r="X17" t="n">
         <v>-0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.05061223287050286</v>
+        <v>-0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01939872043124821</v>
+        <v>-0</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0</v>
+        <v>0.08478549621922067</v>
       </c>
       <c r="AD17" t="n">
         <v>-0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0</v>
+        <v>0.03401267868909055</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.01625739631598946</v>
+        <v>-0.04946780163147248</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.03589523078062046</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -9647,25 +9647,25 @@
         <v>-0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.03348569979625605</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>-0.02788074677289032</v>
       </c>
       <c r="AM17" t="n">
         <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>-0.03198605229156495</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.01179947940996333</v>
+        <v>-0.007508879044618359</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.007426176486505228</v>
+        <v>-0</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -9674,133 +9674,133 @@
         <v>-0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.09409782569797484</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.347499857733591</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0</v>
+        <v>1.258758525554364e-10</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.008911321935998097</v>
+        <v>0.1068424098300194</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.040042106658052e-11</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
         <v>-0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.03344692387447909</v>
+        <v>-0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>0.04515492095906791</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>-0.1920996426943725</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.01607014558221374</v>
+        <v>-0.1484162654406598</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.02156181121445065</v>
+        <v>0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0.02473890164095757</v>
+        <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>0.1065096399426149</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>0</v>
+        <v>-0.01319023133283461</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.04579073580263412</v>
+        <v>0.1604846170122597</v>
       </c>
       <c r="BQ17" t="n">
         <v>-0</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0117241512565295</v>
+        <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT17" t="n">
         <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.06141744035877043</v>
+        <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.1712898781336678</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0</v>
+        <v>0.08290813412540324</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.01334339088865361</v>
+        <v>0.08901966590799887</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.008453077699104519</v>
+        <v>-0</v>
       </c>
       <c r="CB17" t="n">
         <v>-0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD17" t="n">
-        <v>-0.04259425722142832</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0.08712596943517655</v>
       </c>
       <c r="CF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0</v>
+        <v>-0.02075387597562721</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.01649734049332284</v>
+        <v>-0.002153592644940722</v>
       </c>
       <c r="CI17" t="n">
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>-0.01078292922454375</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -9809,79 +9809,79 @@
         <v>-0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0.007164692102198984</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0</v>
+        <v>-0.009864816534725694</v>
       </c>
       <c r="CO17" t="n">
         <v>-0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0</v>
+        <v>-0.1467870035899039</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.01757939711316427</v>
+        <v>-0.0920787933183824</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
-        <v>-0.0261696177352662</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0.03864876737407352</v>
+        <v>-0</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0</v>
+        <v>-0.05791724556515188</v>
       </c>
       <c r="CX17" t="n">
         <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0</v>
+        <v>0.005182475415450661</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.004883350364012951</v>
+        <v>-0.009156336064185575</v>
       </c>
       <c r="DA17" t="n">
         <v>-0</v>
       </c>
       <c r="DB17" t="n">
-        <v>-0.006373226180990942</v>
+        <v>0</v>
       </c>
       <c r="DC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD17" t="n">
         <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>-0.0007116772393517254</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>-0.05148853160773132</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0</v>
+        <v>0.05085688338474276</v>
       </c>
       <c r="DI17" t="n">
-        <v>-0.004513950369074857</v>
+        <v>0.05731869786103624</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK17" t="n">
-        <v>-0.002401795324510452</v>
+        <v>-0</v>
       </c>
       <c r="DL17" t="n">
         <v>0</v>
@@ -9890,79 +9890,79 @@
         <v>0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.0104277365286441</v>
+        <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0.06921948725479179</v>
       </c>
       <c r="DP17" t="n">
         <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0</v>
+        <v>0.003288009373436834</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.0191564422735399</v>
+        <v>-0.0501321460496245</v>
       </c>
       <c r="DS17" t="n">
         <v>0</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.02857472685787306</v>
+        <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV17" t="n">
         <v>0</v>
       </c>
       <c r="DW17" t="n">
-        <v>-0.007540345700777333</v>
+        <v>-0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0</v>
+        <v>-0.03861324932848842</v>
       </c>
       <c r="DY17" t="n">
         <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0</v>
+        <v>-0.03957069134164235</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.006470365995445504</v>
+        <v>-0.01956103109405261</v>
       </c>
       <c r="EB17" t="n">
         <v>-0</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.001150620092058278</v>
+        <v>0</v>
       </c>
       <c r="ED17" t="n">
         <v>-0</v>
       </c>
       <c r="EE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0.06364454594623191</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0.07212848662979884</v>
       </c>
       <c r="EH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
-        <v>-0</v>
+        <v>-0.02466539543301993</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.004622518169428934</v>
+        <v>0.0880462334578923</v>
       </c>
       <c r="EK17" t="n">
         <v>0</v>
       </c>
       <c r="EL17" t="n">
-        <v>-0.02354720924853347</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
         <v>0</v>
@@ -9971,25 +9971,25 @@
         <v>-0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0.005903820267886255</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0</v>
+        <v>0.002182189181602288</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0</v>
+        <v>0.01246032849560602</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.04417169376175623</v>
+        <v>0.02266190414171212</v>
       </c>
       <c r="ET17" t="n">
         <v>0</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.007379016140215728</v>
+        <v>0</v>
       </c>
       <c r="EV17" t="n">
         <v>0</v>
@@ -9998,112 +9998,112 @@
         <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0.03634231371819787</v>
+        <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0.05761992190603876</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0</v>
+        <v>-0.02902193069762792</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.005682485126776517</v>
+        <v>0.01034691459685499</v>
       </c>
       <c r="FC17" t="n">
         <v>-0</v>
       </c>
       <c r="FD17" t="n">
-        <v>-0.006628795228229084</v>
+        <v>0</v>
       </c>
       <c r="FE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF17" t="n">
         <v>-0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.04672455859804771</v>
+        <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>0</v>
+        <v>-0.004955513465100514</v>
       </c>
       <c r="FI17" t="n">
         <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>-0</v>
+        <v>-0.007035758394658607</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.01353494773369246</v>
+        <v>0.005592818130360866</v>
       </c>
       <c r="FL17" t="n">
         <v>-0</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.005681559757658656</v>
+        <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.01355350176364728</v>
+        <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>-0.0419248616880936</v>
       </c>
       <c r="FR17" t="n">
         <v>0</v>
       </c>
       <c r="FS17" t="n">
-        <v>-0</v>
+        <v>0.03124223524113894</v>
       </c>
       <c r="FT17" t="n">
-        <v>-0.005997174755451001</v>
+        <v>-0.03073948573563783</v>
       </c>
       <c r="FU17" t="n">
         <v>-0</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.004982981788754915</v>
+        <v>0</v>
       </c>
       <c r="FW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
         <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.02204855238498642</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0</v>
+        <v>0.03075002026424319</v>
       </c>
       <c r="GA17" t="n">
         <v>-0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0</v>
+        <v>-0.101573470512779</v>
       </c>
       <c r="GC17" t="n">
         <v>-0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.02068956262229054</v>
+        <v>0</v>
       </c>
       <c r="GF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
